--- a/app/assets/images/forma_visita_entomologica.xlsx
+++ b/app/assets/images/forma_visita_entomologica.xlsx
@@ -25,7 +25,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>Platos de animales</t>
+    <t>Plato de animales</t>
   </si>
   <si>
     <t>B</t>
@@ -43,7 +43,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>Plato de maceta, floreros</t>
+    <t>Macetera o florero con agua</t>
   </si>
   <si>
     <t>P</t>
@@ -55,10 +55,10 @@
     <t>T</t>
   </si>
   <si>
-    <t>Tina, cubeta</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>Tina, cubeta, balde, botella</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Otros</t>
@@ -178,7 +178,7 @@
     <t>2014-10-20</t>
   </si>
   <si>
-    <t>O</t>
+    <t>X</t>
   </si>
   <si>
     <t>Jardín</t>
@@ -365,9 +365,6 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment/>
-    </xf>
     <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4"/>
     <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="0" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -379,6 +376,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="0">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c s="14" r="H3"/>
-      <c s="15" r="I3"/>
+      <c s="10" r="I3"/>
       <c s="6" r="L3"/>
       <c s="6" r="M3"/>
       <c s="6" r="N3"/>
@@ -542,14 +542,14 @@
       <c s="5" r="Z3"/>
     </row>
     <row customHeight="1" r="4" ht="12.75">
-      <c s="16" r="A4"/>
-      <c s="17" r="B4"/>
-      <c s="18" r="C4"/>
-      <c s="18" r="D4"/>
-      <c t="s" s="19" r="E4">
+      <c s="15" r="A4"/>
+      <c s="16" r="B4"/>
+      <c s="17" r="C4"/>
+      <c s="17" r="D4"/>
+      <c t="s" s="18" r="E4">
         <v>7</v>
       </c>
-      <c t="s" s="20" r="F4">
+      <c t="s" s="19" r="F4">
         <v>8</v>
       </c>
       <c s="6" r="L4"/>
@@ -570,17 +570,17 @@
     </row>
     <row customHeight="1" r="5" ht="12.75">
       <c s="8" r="A5"/>
-      <c s="17" r="B5"/>
-      <c s="18" r="C5"/>
-      <c s="18" r="D5"/>
-      <c t="s" s="19" r="E5">
+      <c s="16" r="B5"/>
+      <c s="17" r="C5"/>
+      <c s="17" r="D5"/>
+      <c t="s" s="18" r="E5">
         <v>9</v>
       </c>
-      <c t="s" s="20" r="F5">
+      <c t="s" s="19" r="F5">
         <v>10</v>
       </c>
       <c s="14" r="H5"/>
-      <c s="15" r="I5"/>
+      <c s="20" r="I5"/>
       <c s="6" r="L5"/>
       <c s="6" r="M5"/>
       <c s="6" r="N5"/>
@@ -602,10 +602,10 @@
       <c s="8" r="B6"/>
       <c s="8" r="C6"/>
       <c s="8" r="D6"/>
-      <c t="s" s="19" r="E6">
+      <c t="s" s="18" r="E6">
         <v>11</v>
       </c>
-      <c t="s" s="20" r="F6">
+      <c t="s" s="19" r="F6">
         <v>12</v>
       </c>
       <c s="5" r="G6"/>
@@ -660,7 +660,7 @@
       <c s="5" r="B8"/>
       <c s="5" r="C8"/>
       <c s="5" r="D8"/>
-      <c t="s" s="13" r="E8">
+      <c t="s" s="4" r="E8">
         <v>15</v>
       </c>
       <c t="s" s="6" r="F8">
